--- a/va_facility_data_2025-02-20/Bob Stump Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Bob%20Stump%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bob Stump Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Bob%20Stump%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R503af7dea5b0445a8c75a7fc56ae4301"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rdd8556e838764054b98c672fa3d5859e"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rc252cfea228d4bb49fb8545bf8e3abe7"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rdaaa1b9561794208b5d790afd5af2496"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R17937f6fd7d542d99450a8a4708e4f5d"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rf0fa41399cdf4301baf3998bf205a277"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R9c292ae369c24fbb9cf750764421ccbc"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rd11bfec74c6a4173ab3eb5242bb930ed"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R9d369f61f3b74ffa84fafe9036a5344d"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rf4f9c5b2d7c04510aa8b3070cadc3a7e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R560e5bbe49af4640928a4cf3bb42183c"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R21540cdf39384c6288beeefa88929b6d"/>
   </x:sheets>
 </x:workbook>
 </file>
